--- a/poi/demo01.xlsx
+++ b/poi/demo01.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -33,7 +33,7 @@
     <t>zh</t>
   </si>
   <si>
-    <t>beijing</t>
+    <t>常规信息</t>
   </si>
   <si>
     <t>ROOTNAME</t>
@@ -72,6 +72,9 @@
     <t>root dbspace容量</t>
   </si>
   <si>
+    <t>标签B</t>
+  </si>
+  <si>
     <t>MIRROR</t>
   </si>
   <si>
@@ -81,6 +84,9 @@
     <t>镜像</t>
   </si>
   <si>
+    <t>标签C</t>
+  </si>
+  <si>
     <t>MIRRORPATH</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
     <t>root dbspace 镜像路径</t>
   </si>
   <si>
+    <t>标签D</t>
+  </si>
+  <si>
     <t>MIRROROFFSET</t>
   </si>
   <si>
@@ -97,9 +106,6 @@
   </si>
   <si>
     <t>root dbspace 镜像偏移量</t>
-  </si>
-  <si>
-    <t>tianjin</t>
   </si>
   <si>
     <t>PHYSFILE</t>
@@ -128,9 +134,6 @@
   </si>
   <si>
     <t>物理日志缓冲区大小</t>
-  </si>
-  <si>
-    <t>hebei</t>
   </si>
   <si>
     <t>LOGFILES</t>
@@ -178,8 +181,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -198,6 +201,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -207,14 +249,59 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,115 +315,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,181 +354,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,41 +563,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +596,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -640,6 +643,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -648,15 +660,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -665,10 +668,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -677,16 +680,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,115 +698,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,13 +1200,13 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="121.375" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
@@ -1299,16 +1302,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:5">
@@ -1316,16 +1319,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:5">
@@ -1333,16 +1336,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" ht="28.5" spans="1:5">
@@ -1350,16 +1353,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:5">
@@ -1367,16 +1370,16 @@
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:5">
@@ -1384,16 +1387,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:5">
@@ -1401,16 +1404,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:5">
@@ -1418,16 +1421,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" ht="71.25" spans="1:5">
@@ -1435,16 +1438,16 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:5">
@@ -1452,16 +1455,16 @@
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
